--- a/biology/Zoologie/Campagnol_de_Liechtenstein/Campagnol_de_Liechtenstein.xlsx
+++ b/biology/Zoologie/Campagnol_de_Liechtenstein/Campagnol_de_Liechtenstein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Microtus liechtensteini
 Le Campagnol de Liechtenstein (Microtus liechtensteini) est une espèce de rongeurs de la famille des Cricetidae qui se rencontre en Europe centrale et orientale, du nord de l'Italie jusqu'à l'Autriche, la Slovénie et la Croatie.
